--- a/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/G4_Backlog-Sprint_v5.xlsx
+++ b/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/G4_Backlog-Sprint_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panch\Desktop\University\Semester-VI\Analisis\7185_G4\Proyecto\Documentacion\PREGAME\1. ELICITACION\1.6 Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\7185_G4\Proyecto\Documentacion\PREGAME\1. ELICITACION\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27194EB8-CC73-4DFC-915E-FB2CCEB1565E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B0FA66-5A2B-4055-B793-0F27C0BEF1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -30,14 +30,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backlog!$A$1:$H$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="181">
   <si>
     <t>Prioridad</t>
   </si>
@@ -589,6 +587,9 @@
   <si>
     <t>Arreglo de la Base de datos</t>
   </si>
+  <si>
+    <t>Las horas trabajadas, fueron menor que la planificacion, pudiendo observar, que el modulo, fue concluido antes de lo planificado generando eficiencia dentro del desarrollo</t>
+  </si>
 </sst>
 </file>
 
@@ -798,13 +799,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -813,7 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4093,16 +4094,16 @@
       <c r="V24" s="51"/>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O25" s="46" t="s">
+      <c r="O25" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4756,16 +4757,16 @@
       <c r="V29" s="51"/>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O30" s="46" t="s">
+      <c r="O30" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4984,16 +4985,16 @@
       <c r="V14" s="51"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O15" s="46" t="s">
+      <c r="O15" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5013,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA32CC8-5252-4C13-9993-DCD0D0D1BE9B}">
   <dimension ref="C3:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29:S29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5947,16 +5948,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L29" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
+      <c r="L29" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="11" t="str">
@@ -35524,6 +35525,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C8:F8"/>
@@ -35540,11 +35546,6 @@
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -35644,12 +35645,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -35710,12 +35711,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ007_3</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
@@ -35725,10 +35726,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="8"/>
       <c r="H9" s="5"/>
       <c r="I9" s="8"/>
@@ -35794,12 +35795,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -35957,12 +35958,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="8" t="s">
         <v>109</v>
       </c>
@@ -36067,12 +36068,12 @@
         <f>CONCATENATE(B22,"_",A28)</f>
         <v>REQ009_5</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
@@ -36142,12 +36143,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="8" t="s">
         <v>109</v>
       </c>
@@ -36164,7 +36165,7 @@
         <f>CONCATENATE(B32,"_",A34)</f>
         <v>REQ010_1</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="46" t="s">
         <v>145</v>
       </c>
       <c r="D34" s="41"/>
@@ -36186,7 +36187,7 @@
         <f>CONCATENATE(B32,"_",A35)</f>
         <v>REQ010_2</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="46" t="s">
         <v>146</v>
       </c>
       <c r="D35" s="41"/>
@@ -36208,7 +36209,7 @@
         <f>CONCATENATE(B32,"_",A36)</f>
         <v>REQ010_3</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="46" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="41"/>
@@ -36222,23 +36223,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
@@ -36250,6 +36241,16 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36351,12 +36352,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -36417,12 +36418,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ011_3</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="22" t="s">
         <v>4</v>
       </c>
@@ -36432,10 +36433,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="8"/>
       <c r="H9" s="24"/>
       <c r="I9" s="8"/>
@@ -36501,12 +36502,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -36611,12 +36612,12 @@
         <f>CONCATENATE(B13,"_",A19)</f>
         <v>REQ012_5</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="22" t="s">
         <v>4</v>
       </c>
@@ -36696,12 +36697,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="8" t="s">
         <v>109</v>
       </c>
@@ -36815,12 +36816,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="8" t="s">
         <v>109</v>
       </c>
@@ -36837,12 +36838,12 @@
         <f>CONCATENATE(B32,"_",A34)</f>
         <v>REQ014_1</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="22" t="s">
         <v>4</v>
       </c>
@@ -36859,7 +36860,7 @@
         <f>CONCATENATE(B32,"_",A35)</f>
         <v>REQ014_2</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="46" t="s">
         <v>155</v>
       </c>
       <c r="D35" s="41"/>
@@ -36881,12 +36882,12 @@
         <f>CONCATENATE(B32,"_",A36)</f>
         <v>REQ014_3</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="22" t="s">
         <v>4</v>
       </c>
@@ -36902,7 +36903,7 @@
         <f>CONCATENATE(B35,"_",A37)</f>
         <v>REQ014_2_4</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="46" t="s">
         <v>159</v>
       </c>
       <c r="D37" s="41"/>
@@ -36917,6 +36918,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
@@ -36925,17 +36937,6 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37037,12 +37038,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -37103,12 +37104,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ015_3</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="29" t="s">
         <v>7</v>
       </c>
@@ -37181,9 +37182,9 @@
       <c r="C12" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="8" t="s">
         <v>109</v>
       </c>
@@ -37244,12 +37245,12 @@
         <f>CONCATENATE(B11,"_",A15)</f>
         <v>REQ016_3</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="29" t="s">
         <v>7</v>
       </c>
@@ -37319,12 +37320,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="8" t="s">
         <v>109</v>
       </c>
@@ -37385,12 +37386,12 @@
         <f>CONCATENATE(B18,"_",A22)</f>
         <v>REQ018_3</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="29" t="s">
         <v>7</v>
       </c>
@@ -37459,12 +37460,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="8" t="s">
         <v>109</v>
       </c>
@@ -37525,12 +37526,12 @@
         <f>CONCATENATE(B25,"_",A29)</f>
         <v>REQ019_3</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="29" t="s">
         <v>7</v>
       </c>
@@ -37599,12 +37600,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="8" t="s">
         <v>109</v>
       </c>
@@ -37665,12 +37666,12 @@
         <f>CONCATENATE(B32,"_",A36)</f>
         <v>REQ020_3</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="29" t="s">
         <v>7</v>
       </c>
@@ -37739,12 +37740,12 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="8" t="s">
         <v>109</v>
       </c>
@@ -37761,12 +37762,12 @@
         <f>CONCATENATE(B40,"_",A42)</f>
         <v>REQ021_1</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
       <c r="G42" s="29" t="s">
         <v>7</v>
       </c>
@@ -37783,7 +37784,7 @@
         <f>CONCATENATE(B40,"_",A43)</f>
         <v>REQ021_2</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="46" t="s">
         <v>175</v>
       </c>
       <c r="D43" s="41"/>
@@ -37805,12 +37806,12 @@
         <f>CONCATENATE(B40,"_",A44)</f>
         <v>REQ021_3</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="29" t="s">
         <v>7</v>
       </c>
@@ -37820,14 +37821,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C13:F13"/>
@@ -37839,11 +37837,14 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37945,12 +37946,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -38011,12 +38012,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ017_3</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="37" t="s">
         <v>10</v>
       </c>
@@ -39224,16 +39225,16 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
@@ -66770,16 +66771,16 @@
       <c r="V25" s="51"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O26" s="46" t="s">
+      <c r="O26" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
